--- a/perapihan server kepoo arkadia.xlsx
+++ b/perapihan server kepoo arkadia.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="SE"/>
+  <fileSharing readOnlyRecommended="0" userName="dev"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
@@ -15,17 +15,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1642416554" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1642416554" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1642416554"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1642416554"/>
+      <pm:revision xmlns:pm="smNativeData" day="1642662518" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1642662518" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1642662518" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1642662518"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>NO</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Labeling Kabel UTP</t>
   </si>
   <si>
+    <t>100 pcs</t>
+  </si>
+  <si>
     <t>Sticker Label</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t>Crimping RJ45</t>
   </si>
   <si>
+    <t>1 unit</t>
+  </si>
+  <si>
     <t>Exisiting kurang presisi</t>
   </si>
   <si>
@@ -126,6 +132,36 @@
     <t>4 Pcs</t>
   </si>
   <si>
+    <t>Pin / Connector RJ45</t>
+  </si>
+  <si>
+    <t>Belden/AMP/Panduit</t>
+  </si>
+  <si>
+    <t>Konektor untuk kabel UTP</t>
+  </si>
+  <si>
+    <t>Untuk penggantian line yang konektornya tidak stabil</t>
+  </si>
+  <si>
+    <t>Cage Nut M6 ( Mur + Baut )</t>
+  </si>
+  <si>
+    <t>10 pasang</t>
+  </si>
+  <si>
+    <t>Wire Management PVC</t>
+  </si>
+  <si>
+    <t>Penggulung kabel dalam rack</t>
+  </si>
+  <si>
+    <t>2 Pcs</t>
+  </si>
+  <si>
+    <t>Untuk perapihan kabel sebelum menuju switch / router</t>
+  </si>
+  <si>
     <t>Dalam melaksanakan kegiatan perapihan ini , maka akan terdampak pada operasional :</t>
   </si>
   <si>
@@ -138,10 +174,13 @@
     <t>3. Pengerjaan membutuhkan tim lapangan minimal 2 orang</t>
   </si>
   <si>
-    <t>4. Pengerjaan hanya untuk switch internal office pada segment network 172.16.1.0/24</t>
-  </si>
-  <si>
-    <t>5. Tidak melakukan down baik system ataupun network Server</t>
+    <t>4. Pengerjaan bertahap, dimulai dari switch internal office pada segment network 172.16.1.0/24</t>
+  </si>
+  <si>
+    <t>5. Tidak melakukan down system SERVER</t>
+  </si>
+  <si>
+    <t>6. Network SERVER mungkin akan terputus sesaat, karena pergeseran/perpindahan kabel ( max 10 menit )</t>
   </si>
   <si>
     <t>Jadwal Pelaksanaan:</t>
@@ -164,14 +203,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;Rp&quot;;\-#,##0\ &quot;Rp&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;Rp&quot;;[Red]\-#,##0\ &quot;Rp&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;Rp&quot;;\-#,##0.00\ &quot;Rp&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;Rp&quot;;[Red]\-#,##0.00\ &quot;Rp&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;Rp&quot;_-;\-* #,##0\ &quot;Rp&quot;_-;_-* &quot;-&quot;\ &quot;Rp&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _R_p_-;\-* #,##0\ _R_p_-;_-* &quot;-&quot;\ _R_p_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Rp&quot;_-;\-* #,##0.00\ &quot;Rp&quot;_-;_-* &quot;-&quot;??\ &quot;Rp&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _R_p_-;\-* #,##0.00\ _R_p_-;_-* &quot;-&quot;??\ _R_p_-;_-@_-"/>
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -181,7 +220,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1642416554" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1642662518" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -197,7 +236,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1642416554" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1642662518" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -219,7 +258,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1642416554" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1642662518" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -241,7 +280,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1642416554"/>
+          <pm:border xmlns:pm="smNativeData" id="1642662518"/>
         </ext>
       </extLst>
     </border>
@@ -260,7 +299,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1642416554"/>
+          <pm:border xmlns:pm="smNativeData" id="1642662518"/>
         </ext>
       </extLst>
     </border>
@@ -278,7 +317,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1642416554" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1642662518" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -545,17 +584,17 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="1" width="3.513514" customWidth="1"/>
-    <col min="2" max="2" width="21.738739" customWidth="1"/>
-    <col min="3" max="3" width="11.729730" customWidth="1"/>
+    <col min="2" max="2" width="23.018018" customWidth="1"/>
+    <col min="3" max="3" width="17.414414" customWidth="1"/>
     <col min="4" max="4" width="31.936937" customWidth="1"/>
     <col min="5" max="5" width="13.036036" customWidth="1"/>
-    <col min="6" max="6" width="19.207207" customWidth="1"/>
+    <col min="6" max="6" width="44.270270" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -595,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -605,16 +644,22 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -622,19 +667,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -642,16 +687,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -659,19 +707,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -679,51 +727,90 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="n">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -825,7 +912,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1642416554" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1642662518" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -834,16 +921,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1642416554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1642416554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1642416554" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1642416554" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1642662518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1642662518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1642662518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1642662518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1642416554" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1642662518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -854,49 +941,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1642416554" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1642662518" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -905,16 +997,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1642416554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1642416554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1642416554" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1642416554" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1642662518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1642662518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1642662518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1642662518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1642416554" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1642662518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -939,30 +1031,30 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1642416554" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1642662518" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -971,16 +1063,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1642416554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1642416554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1642416554" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1642416554" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1642662518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1642662518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1642662518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1642662518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1642416554" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1642662518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
